--- a/public/xlsx/sample_import_template_01.xlsx
+++ b/public/xlsx/sample_import_template_01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49172\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49172\Downloads\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A934EE-A797-4104-9625-3A7668666C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACC2E3E-A92F-46DD-B8DA-2E74456A19A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28020" yWindow="780" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>decoupled</t>
   </si>
@@ -75,9 +75,6 @@
     <t>location</t>
   </si>
   <si>
-    <t>secret</t>
-  </si>
-  <si>
     <t>melting pt</t>
   </si>
   <si>
@@ -102,7 +99,7 @@
     <t>dry solvent</t>
   </si>
   <si>
-    <t>residue type</t>
+    <t>is_top_secret</t>
   </si>
 </sst>
 </file>
@@ -177,12 +174,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,15 +603,14 @@
     <col min="13" max="13" width="12.28515625" customWidth="1"/>
     <col min="14" max="15" width="8.42578125" customWidth="1"/>
     <col min="16" max="16" width="9.140625" customWidth="1"/>
-    <col min="17" max="17" width="10" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" customWidth="1"/>
     <col min="18" max="19" width="10.85546875" customWidth="1"/>
     <col min="20" max="21" width="31.140625" customWidth="1"/>
-    <col min="22" max="23" width="12.42578125" customWidth="1"/>
-    <col min="24" max="24" width="27.5703125" customWidth="1"/>
-    <col min="26" max="26" width="13.140625" customWidth="1"/>
+    <col min="22" max="24" width="12.42578125" customWidth="1"/>
+    <col min="25" max="25" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -635,7 +630,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -665,37 +660,34 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -711,9 +703,9 @@
       <c r="Q2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
-      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -729,9 +721,9 @@
       <c r="Q3" s="3"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
-      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -747,9 +739,9 @@
       <c r="Q4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
-      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -764,9 +756,9 @@
       <c r="Q5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
-      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -781,7 +773,7 @@
       <c r="Q6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
-      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/public/xlsx/sample_import_template_01.xlsx
+++ b/public/xlsx/sample_import_template_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49172\Downloads\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49172\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACC2E3E-A92F-46DD-B8DA-2E74456A19A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D616AD0C-89B6-467D-B51B-19174A974BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>decoupled</t>
   </si>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>is_top_secret</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>solubility</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t>inventory label</t>
   </si>
 </sst>
 </file>
@@ -581,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:AC6"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,11 +618,13 @@
     <col min="17" max="17" width="14.7109375" customWidth="1"/>
     <col min="18" max="19" width="10.85546875" customWidth="1"/>
     <col min="20" max="21" width="31.140625" customWidth="1"/>
-    <col min="22" max="24" width="12.42578125" customWidth="1"/>
-    <col min="25" max="25" width="27.5703125" customWidth="1"/>
+    <col min="22" max="26" width="12.42578125" customWidth="1"/>
+    <col min="27" max="27" width="18.28515625" customWidth="1"/>
+    <col min="28" max="28" width="12.42578125" customWidth="1"/>
+    <col min="29" max="29" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -681,13 +695,25 @@
         <v>23</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -703,9 +729,9 @@
       <c r="Q2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
-      <c r="Y2" s="3"/>
+      <c r="AC2" s="3"/>
     </row>
-    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -721,9 +747,9 @@
       <c r="Q3" s="3"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
-      <c r="Y3" s="3"/>
+      <c r="AC3" s="3"/>
     </row>
-    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -739,9 +765,9 @@
       <c r="Q4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
-      <c r="Y4" s="3"/>
+      <c r="AC4" s="3"/>
     </row>
-    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -756,9 +782,9 @@
       <c r="Q5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
-      <c r="Y5" s="3"/>
+      <c r="AC5" s="3"/>
     </row>
-    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -773,7 +799,7 @@
       <c r="Q6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
-      <c r="Y6" s="3"/>
+      <c r="AC6" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
